--- a/bf-signature.xlsx
+++ b/bf-signature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\GitHub\bf-signature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1077BF85-5A39-4941-957E-692960E3F885}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD3E760-DF6F-4CAA-B468-CC699437D7F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AE3D3994-95C1-48E7-B5B4-B402D07D41B7}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
   <si>
     <t>d</t>
   </si>
@@ -81,12 +80,18 @@
   <si>
     <t>Out</t>
   </si>
+  <si>
+    <t>Code</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="\+0;\-0"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +110,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -158,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -177,6 +198,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -492,24 +537,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE9C7E8-E788-408C-8D4B-CE41E722A6C6}">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:AG29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" style="14" customWidth="1"/>
     <col min="2" max="2" width="6.21875" customWidth="1"/>
     <col min="3" max="10" width="6.21875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="2.21875" customWidth="1"/>
-    <col min="12" max="19" width="6.21875" customWidth="1"/>
-    <col min="20" max="20" width="6.21875" style="6" customWidth="1"/>
-    <col min="21" max="21" width="2.21875" customWidth="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+    <col min="12" max="12" width="2.21875" customWidth="1"/>
+    <col min="13" max="20" width="6.21875" customWidth="1"/>
+    <col min="21" max="21" width="6.21875" style="6" customWidth="1"/>
+    <col min="22" max="22" width="7.5546875" customWidth="1"/>
+    <col min="23" max="23" width="2.21875" customWidth="1"/>
+    <col min="24" max="32" width="6.21875" customWidth="1"/>
+    <col min="33" max="33" width="7.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A1" s="12"/>
       <c r="B1" s="2"/>
       <c r="C1" s="4">
         <v>45</v>
@@ -535,34 +583,68 @@
       <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="4">
+      <c r="K1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="4">
         <v>45</v>
       </c>
-      <c r="N1" s="4">
+      <c r="O1" s="4">
         <v>108</v>
       </c>
-      <c r="O1" s="4">
+      <c r="P1" s="4">
         <v>99</v>
       </c>
-      <c r="P1" s="4">
+      <c r="Q1" s="4">
         <v>108</v>
       </c>
-      <c r="Q1" s="4">
+      <c r="R1" s="4">
         <v>63</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="V1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="4">
+        <v>45</v>
+      </c>
+      <c r="Z1" s="4">
+        <v>99</v>
+      </c>
+      <c r="AA1" s="4">
+        <v>108</v>
+      </c>
+      <c r="AB1" s="4">
+        <v>108</v>
+      </c>
+      <c r="AC1" s="4">
+        <v>63</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3">
@@ -575,37 +657,68 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="8">
+      <c r="H2" s="15">
         <v>3</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="15">
         <v>1</v>
       </c>
       <c r="J2" s="8">
         <v>1</v>
       </c>
-      <c r="L2" s="3">
+      <c r="K2" s="16" t="str">
+        <f t="shared" ref="K2:K26" si="0">_xlfn.CONCAT(REPT(IF(H2&gt;0,"&gt;","&lt;"),ABS(H2)),REPT(IF(I2&gt;0,"+","-"),ABS(I2)),".")</f>
+        <v>&gt;&gt;&gt;+.</v>
+      </c>
+      <c r="M2" s="3">
         <v>100</v>
       </c>
-      <c r="M2" s="5"/>
       <c r="N2" s="5"/>
-      <c r="O2" s="5">
+      <c r="O2" s="5"/>
+      <c r="P2" s="5">
         <v>100</v>
       </c>
-      <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
-      <c r="R2" s="8">
+      <c r="R2" s="5"/>
+      <c r="S2" s="15">
         <v>3</v>
       </c>
-      <c r="S2" s="8">
-        <v>1</v>
-      </c>
-      <c r="T2" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="T2" s="15">
+        <v>1</v>
+      </c>
+      <c r="U2" s="8">
+        <v>1</v>
+      </c>
+      <c r="V2" s="16" t="str">
+        <f t="shared" ref="V2:V26" si="1">_xlfn.CONCAT(REPT(IF(S2&gt;0,"&gt;","&lt;"),ABS(S2)),REPT(IF(T2&gt;0,"+","-"),ABS(T2)),".")</f>
+        <v>&gt;&gt;&gt;+.</v>
+      </c>
+      <c r="X2" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5">
+        <v>100</v>
+      </c>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="15">
+        <v>2</v>
+      </c>
+      <c r="AE2" s="15">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="16" t="str">
+        <f t="shared" ref="AG2:AG26" si="2">_xlfn.CONCAT(REPT(IF(AD2&gt;0,"&gt;","&lt;"),ABS(AD2)),REPT(IF(AE2&gt;0,"+","-"),ABS(AE2)),".")</f>
+        <v>&gt;&gt;+.</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3">
@@ -618,37 +731,68 @@
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8">
+      <c r="H3" s="15">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15">
         <v>3</v>
       </c>
       <c r="J3" s="8">
         <v>1</v>
       </c>
-      <c r="L3" s="3">
+      <c r="K3" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>+++.</v>
+      </c>
+      <c r="M3" s="3">
         <v>97</v>
       </c>
-      <c r="M3" s="5"/>
       <c r="N3" s="5"/>
-      <c r="O3" s="5">
+      <c r="O3" s="5"/>
+      <c r="P3" s="5">
         <v>97</v>
       </c>
-      <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
-      <c r="R3" s="8">
-        <v>0</v>
-      </c>
-      <c r="S3" s="8">
+      <c r="R3" s="5"/>
+      <c r="S3" s="15">
+        <v>0</v>
+      </c>
+      <c r="T3" s="15">
         <v>3</v>
       </c>
-      <c r="T3" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="U3" s="8">
+        <v>1</v>
+      </c>
+      <c r="V3" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>+++.</v>
+      </c>
+      <c r="X3" s="3">
+        <v>97</v>
+      </c>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5">
+        <v>97</v>
+      </c>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="15">
+        <v>3</v>
+      </c>
+      <c r="AF3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>+++.</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3">
@@ -661,37 +805,68 @@
         <v>110</v>
       </c>
       <c r="G4" s="5"/>
-      <c r="H4" s="8">
-        <v>1</v>
-      </c>
-      <c r="I4" s="8">
+      <c r="H4" s="15">
+        <v>1</v>
+      </c>
+      <c r="I4" s="15">
         <v>2</v>
       </c>
       <c r="J4" s="8">
         <v>1</v>
       </c>
-      <c r="L4" s="3">
+      <c r="K4" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;++.</v>
+      </c>
+      <c r="M4" s="3">
         <v>110</v>
       </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5">
+      <c r="N4" s="5"/>
+      <c r="O4" s="5">
         <v>110</v>
       </c>
-      <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
-      <c r="R4" s="8">
-        <v>1</v>
-      </c>
-      <c r="S4" s="8">
-        <v>2</v>
-      </c>
-      <c r="T4" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="R4" s="5"/>
+      <c r="S4" s="15">
+        <v>1</v>
+      </c>
+      <c r="T4" s="15">
+        <v>2</v>
+      </c>
+      <c r="U4" s="8">
+        <v>1</v>
+      </c>
+      <c r="V4" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>&gt;++.</v>
+      </c>
+      <c r="X4" s="3">
+        <v>110</v>
+      </c>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5">
+        <v>110</v>
+      </c>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="15">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>&gt;++.</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3">
@@ -704,37 +879,68 @@
       <c r="G5" s="5">
         <v>105</v>
       </c>
-      <c r="H5" s="8">
-        <v>1</v>
-      </c>
-      <c r="I5" s="8">
+      <c r="H5" s="15">
+        <v>1</v>
+      </c>
+      <c r="I5" s="15">
         <v>3</v>
       </c>
       <c r="J5" s="8">
         <v>1</v>
       </c>
-      <c r="L5" s="3">
+      <c r="K5" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;+++.</v>
+      </c>
+      <c r="M5" s="3">
         <v>105</v>
       </c>
-      <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
-      <c r="P5" s="5">
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5">
         <v>105</v>
       </c>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="8">
-        <v>2</v>
-      </c>
-      <c r="S5" s="8">
+      <c r="R5" s="5"/>
+      <c r="S5" s="15">
+        <v>2</v>
+      </c>
+      <c r="T5" s="15">
         <v>3</v>
       </c>
-      <c r="T5" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="U5" s="8">
+        <v>1</v>
+      </c>
+      <c r="V5" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>&gt;&gt;+++.</v>
+      </c>
+      <c r="X5" s="3">
+        <v>105</v>
+      </c>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5">
+        <v>105</v>
+      </c>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="15">
+        <v>3</v>
+      </c>
+      <c r="AF5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>&gt;+++.</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="3">
@@ -747,37 +953,68 @@
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="8">
-        <v>2</v>
-      </c>
-      <c r="I6" s="8">
+      <c r="H6" s="15">
+        <v>2</v>
+      </c>
+      <c r="I6" s="15">
         <v>4</v>
       </c>
       <c r="J6" s="8">
         <v>1</v>
       </c>
-      <c r="L6" s="3">
+      <c r="K6" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;&gt;++++.</v>
+      </c>
+      <c r="M6" s="3">
         <v>101</v>
       </c>
-      <c r="M6" s="5"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="5">
+      <c r="O6" s="5"/>
+      <c r="P6" s="5">
         <v>101</v>
       </c>
-      <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
-      <c r="R6" s="8">
-        <v>1</v>
-      </c>
-      <c r="S6" s="8">
+      <c r="R6" s="5"/>
+      <c r="S6" s="15">
+        <v>1</v>
+      </c>
+      <c r="T6" s="15">
         <v>4</v>
       </c>
-      <c r="T6" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="U6" s="8">
+        <v>1</v>
+      </c>
+      <c r="V6" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>&gt;++++.</v>
+      </c>
+      <c r="X6" s="3">
+        <v>101</v>
+      </c>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5">
+        <v>101</v>
+      </c>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AE6" s="15">
+        <v>4</v>
+      </c>
+      <c r="AF6" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;&lt;++++.</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3">
@@ -790,37 +1027,68 @@
       <c r="G7" s="5">
         <v>108</v>
       </c>
-      <c r="H7" s="8">
-        <v>2</v>
-      </c>
-      <c r="I7" s="8">
+      <c r="H7" s="15">
+        <v>2</v>
+      </c>
+      <c r="I7" s="15">
         <v>3</v>
       </c>
       <c r="J7" s="8">
         <v>1</v>
       </c>
-      <c r="L7" s="3">
+      <c r="K7" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;&gt;+++.</v>
+      </c>
+      <c r="M7" s="3">
         <v>108</v>
       </c>
-      <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
-      <c r="P7" s="5">
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5">
         <v>108</v>
       </c>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="8">
-        <v>1</v>
-      </c>
-      <c r="S7" s="8">
+      <c r="R7" s="5"/>
+      <c r="S7" s="15">
+        <v>1</v>
+      </c>
+      <c r="T7" s="15">
         <v>3</v>
       </c>
-      <c r="T7" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="U7" s="8">
+        <v>1</v>
+      </c>
+      <c r="V7" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>&gt;+++.</v>
+      </c>
+      <c r="X7" s="3">
+        <v>108</v>
+      </c>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5">
+        <v>108</v>
+      </c>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="15">
+        <v>2</v>
+      </c>
+      <c r="AE7" s="15">
+        <v>3</v>
+      </c>
+      <c r="AF7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>&gt;&gt;+++.</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="3">
@@ -833,37 +1101,68 @@
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="8">
-        <v>2</v>
-      </c>
-      <c r="I8" s="8">
+      <c r="H8" s="15">
+        <v>2</v>
+      </c>
+      <c r="I8" s="15">
         <v>0</v>
       </c>
       <c r="J8" s="8">
         <v>1</v>
       </c>
-      <c r="L8" s="3">
+      <c r="K8" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;&gt;.</v>
+      </c>
+      <c r="M8" s="3">
         <v>101</v>
       </c>
-      <c r="M8" s="5"/>
       <c r="N8" s="5"/>
-      <c r="O8" s="5">
+      <c r="O8" s="5"/>
+      <c r="P8" s="5">
         <v>101</v>
       </c>
-      <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
-      <c r="R8" s="8">
-        <v>1</v>
-      </c>
-      <c r="S8" s="8">
-        <v>0</v>
-      </c>
-      <c r="T8" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="R8" s="5"/>
+      <c r="S8" s="15">
+        <v>1</v>
+      </c>
+      <c r="T8" s="15">
+        <v>0</v>
+      </c>
+      <c r="U8" s="8">
+        <v>1</v>
+      </c>
+      <c r="V8" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>&gt;.</v>
+      </c>
+      <c r="X8" s="3">
+        <v>101</v>
+      </c>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5">
+        <v>101</v>
+      </c>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AE8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;&lt;.</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="3">
@@ -876,37 +1175,68 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="8">
-        <v>2</v>
-      </c>
-      <c r="I9" s="8">
+      <c r="H9" s="15">
+        <v>2</v>
+      </c>
+      <c r="I9" s="15">
         <v>1</v>
       </c>
       <c r="J9" s="8">
         <v>1</v>
       </c>
-      <c r="L9" s="3">
+      <c r="K9" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;&gt;+.</v>
+      </c>
+      <c r="M9" s="3">
         <v>46</v>
       </c>
-      <c r="M9" s="5">
+      <c r="N9" s="5">
         <v>46</v>
       </c>
-      <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
-      <c r="R9" s="8">
-        <v>2</v>
-      </c>
-      <c r="S9" s="8">
-        <v>1</v>
-      </c>
-      <c r="T9" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="R9" s="5"/>
+      <c r="S9" s="15">
+        <v>2</v>
+      </c>
+      <c r="T9" s="15">
+        <v>1</v>
+      </c>
+      <c r="U9" s="8">
+        <v>1</v>
+      </c>
+      <c r="V9" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>&gt;&gt;+.</v>
+      </c>
+      <c r="X9" s="3">
+        <v>46</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>46</v>
+      </c>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AE9" s="15">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;+.</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="3">
@@ -919,37 +1249,68 @@
         <v>111</v>
       </c>
       <c r="G10" s="5"/>
-      <c r="H10" s="8">
+      <c r="H10" s="15">
         <v>3</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="15">
         <v>1</v>
       </c>
       <c r="J10" s="8">
         <v>1</v>
       </c>
-      <c r="L10" s="3">
+      <c r="K10" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;&gt;&gt;+.</v>
+      </c>
+      <c r="M10" s="3">
         <v>111</v>
       </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5">
+      <c r="N10" s="5"/>
+      <c r="O10" s="5">
         <v>111</v>
       </c>
-      <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
-      <c r="R10" s="8">
-        <v>1</v>
-      </c>
-      <c r="S10" s="8">
-        <v>1</v>
-      </c>
-      <c r="T10" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="R10" s="5"/>
+      <c r="S10" s="15">
+        <v>1</v>
+      </c>
+      <c r="T10" s="15">
+        <v>1</v>
+      </c>
+      <c r="U10" s="8">
+        <v>1</v>
+      </c>
+      <c r="V10" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>&gt;+.</v>
+      </c>
+      <c r="X10" s="3">
+        <v>111</v>
+      </c>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5">
+        <v>111</v>
+      </c>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AE10" s="15">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;&lt;+.</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3">
@@ -962,37 +1323,68 @@
       <c r="G11" s="5">
         <v>108</v>
       </c>
-      <c r="H11" s="8">
-        <v>1</v>
-      </c>
-      <c r="I11" s="8">
+      <c r="H11" s="15">
+        <v>1</v>
+      </c>
+      <c r="I11" s="15">
         <v>0</v>
       </c>
       <c r="J11" s="8">
         <v>1</v>
       </c>
-      <c r="L11" s="3">
+      <c r="K11" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;.</v>
+      </c>
+      <c r="M11" s="3">
         <v>108</v>
       </c>
-      <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
-      <c r="P11" s="5">
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5">
         <v>108</v>
       </c>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="8">
-        <v>2</v>
-      </c>
-      <c r="S11" s="8">
-        <v>0</v>
-      </c>
-      <c r="T11" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="R11" s="5"/>
+      <c r="S11" s="15">
+        <v>2</v>
+      </c>
+      <c r="T11" s="15">
+        <v>0</v>
+      </c>
+      <c r="U11" s="8">
+        <v>1</v>
+      </c>
+      <c r="V11" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>&gt;&gt;.</v>
+      </c>
+      <c r="X11" s="3">
+        <v>108</v>
+      </c>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5">
+        <v>108</v>
+      </c>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>&gt;.</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="3">
@@ -1005,37 +1397,68 @@
       <c r="G12" s="5">
         <v>109</v>
       </c>
-      <c r="H12" s="8">
-        <v>0</v>
-      </c>
-      <c r="I12" s="8">
+      <c r="H12" s="15">
+        <v>0</v>
+      </c>
+      <c r="I12" s="15">
         <v>1</v>
       </c>
       <c r="J12" s="8">
         <v>1</v>
       </c>
-      <c r="L12" s="3">
+      <c r="K12" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>+.</v>
+      </c>
+      <c r="M12" s="3">
         <v>109</v>
       </c>
-      <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
-      <c r="P12" s="5">
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5">
         <v>109</v>
       </c>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="8">
-        <v>0</v>
-      </c>
-      <c r="S12" s="8">
-        <v>1</v>
-      </c>
-      <c r="T12" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="R12" s="5"/>
+      <c r="S12" s="15">
+        <v>0</v>
+      </c>
+      <c r="T12" s="15">
+        <v>1</v>
+      </c>
+      <c r="U12" s="8">
+        <v>1</v>
+      </c>
+      <c r="V12" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>+.</v>
+      </c>
+      <c r="X12" s="3">
+        <v>109</v>
+      </c>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5">
+        <v>109</v>
+      </c>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="15">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>+.</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="3">
@@ -1048,37 +1471,68 @@
       <c r="G13" s="5">
         <v>105</v>
       </c>
-      <c r="H13" s="8">
-        <v>0</v>
-      </c>
-      <c r="I13" s="8">
+      <c r="H13" s="15">
+        <v>0</v>
+      </c>
+      <c r="I13" s="15">
         <v>4</v>
       </c>
       <c r="J13" s="8">
         <v>1</v>
       </c>
-      <c r="L13" s="3">
+      <c r="K13" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>++++.</v>
+      </c>
+      <c r="M13" s="3">
         <v>105</v>
       </c>
-      <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
-      <c r="P13" s="5">
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5">
         <v>105</v>
       </c>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="8">
-        <v>0</v>
-      </c>
-      <c r="S13" s="8">
+      <c r="R13" s="5"/>
+      <c r="S13" s="15">
+        <v>0</v>
+      </c>
+      <c r="T13" s="15">
         <v>4</v>
       </c>
-      <c r="T13" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="U13" s="8">
+        <v>1</v>
+      </c>
+      <c r="V13" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>++++.</v>
+      </c>
+      <c r="X13" s="3">
+        <v>105</v>
+      </c>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5">
+        <v>105</v>
+      </c>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="15">
+        <v>-4</v>
+      </c>
+      <c r="AF13" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>----.</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="3">
@@ -1091,37 +1545,68 @@
         <v>115</v>
       </c>
       <c r="G14" s="5"/>
-      <c r="H14" s="8">
-        <v>1</v>
-      </c>
-      <c r="I14" s="8">
+      <c r="H14" s="15">
+        <v>1</v>
+      </c>
+      <c r="I14" s="15">
         <v>4</v>
       </c>
       <c r="J14" s="8">
         <v>1</v>
       </c>
-      <c r="L14" s="3">
+      <c r="K14" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;++++.</v>
+      </c>
+      <c r="M14" s="3">
         <v>115</v>
       </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5">
+      <c r="N14" s="5"/>
+      <c r="O14" s="5">
         <v>115</v>
       </c>
-      <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
-      <c r="R14" s="8">
-        <v>2</v>
-      </c>
-      <c r="S14" s="8">
+      <c r="R14" s="5"/>
+      <c r="S14" s="15">
+        <v>2</v>
+      </c>
+      <c r="T14" s="15">
         <v>4</v>
       </c>
-      <c r="T14" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="U14" s="8">
+        <v>1</v>
+      </c>
+      <c r="V14" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>&gt;&gt;++++.</v>
+      </c>
+      <c r="X14" s="3">
+        <v>115</v>
+      </c>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5">
+        <v>115</v>
+      </c>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AE14" s="15">
+        <v>4</v>
+      </c>
+      <c r="AF14" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG14" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;++++.</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="3">
@@ -1134,37 +1619,68 @@
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="8">
-        <v>1</v>
-      </c>
-      <c r="I15" s="8">
+      <c r="H15" s="15">
+        <v>1</v>
+      </c>
+      <c r="I15" s="15">
         <v>4</v>
       </c>
       <c r="J15" s="8">
         <v>1</v>
       </c>
-      <c r="L15" s="3">
+      <c r="K15" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;++++.</v>
+      </c>
+      <c r="M15" s="3">
         <v>97</v>
       </c>
-      <c r="M15" s="5"/>
       <c r="N15" s="5"/>
-      <c r="O15" s="5">
+      <c r="O15" s="5"/>
+      <c r="P15" s="5">
         <v>97</v>
       </c>
-      <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
-      <c r="R15" s="8">
-        <v>1</v>
-      </c>
-      <c r="S15" s="8">
+      <c r="R15" s="5"/>
+      <c r="S15" s="15">
+        <v>1</v>
+      </c>
+      <c r="T15" s="15">
         <v>4</v>
       </c>
-      <c r="T15" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="U15" s="8">
+        <v>1</v>
+      </c>
+      <c r="V15" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>&gt;++++.</v>
+      </c>
+      <c r="X15" s="3">
+        <v>97</v>
+      </c>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5">
+        <v>97</v>
+      </c>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AE15" s="15">
+        <v>-4</v>
+      </c>
+      <c r="AF15" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;----.</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="3">
@@ -1177,37 +1693,68 @@
         <v>110</v>
       </c>
       <c r="G16" s="5"/>
-      <c r="H16" s="8">
-        <v>1</v>
-      </c>
-      <c r="I16" s="8">
+      <c r="H16" s="15">
+        <v>1</v>
+      </c>
+      <c r="I16" s="15">
         <v>5</v>
       </c>
       <c r="J16" s="8">
         <v>1</v>
       </c>
-      <c r="L16" s="3">
+      <c r="K16" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;+++++.</v>
+      </c>
+      <c r="M16" s="3">
         <v>110</v>
       </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5">
+      <c r="N16" s="5"/>
+      <c r="O16" s="5">
         <v>110</v>
       </c>
-      <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
-      <c r="R16" s="8">
-        <v>1</v>
-      </c>
-      <c r="S16" s="8">
+      <c r="R16" s="5"/>
+      <c r="S16" s="15">
+        <v>1</v>
+      </c>
+      <c r="T16" s="15">
         <v>5</v>
       </c>
-      <c r="T16" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="U16" s="8">
+        <v>1</v>
+      </c>
+      <c r="V16" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>&gt;+++++.</v>
+      </c>
+      <c r="X16" s="3">
+        <v>110</v>
+      </c>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5">
+        <v>110</v>
+      </c>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="15">
+        <v>-5</v>
+      </c>
+      <c r="AF16" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG16" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>&gt;-----.</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="3">
@@ -1220,37 +1767,68 @@
       <c r="G17" s="5">
         <v>105</v>
       </c>
-      <c r="H17" s="8">
-        <v>1</v>
-      </c>
-      <c r="I17" s="8">
+      <c r="H17" s="15">
+        <v>1</v>
+      </c>
+      <c r="I17" s="15">
         <v>0</v>
       </c>
       <c r="J17" s="8">
         <v>1</v>
       </c>
-      <c r="L17" s="3">
+      <c r="K17" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;.</v>
+      </c>
+      <c r="M17" s="3">
         <v>105</v>
       </c>
-      <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
-      <c r="P17" s="5">
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5">
         <v>105</v>
       </c>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="8">
-        <v>2</v>
-      </c>
-      <c r="S17" s="8">
-        <v>0</v>
-      </c>
-      <c r="T17" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="R17" s="5"/>
+      <c r="S17" s="15">
+        <v>2</v>
+      </c>
+      <c r="T17" s="15">
+        <v>0</v>
+      </c>
+      <c r="U17" s="8">
+        <v>1</v>
+      </c>
+      <c r="V17" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>&gt;&gt;.</v>
+      </c>
+      <c r="X17" s="3">
+        <v>105</v>
+      </c>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5">
+        <v>105</v>
+      </c>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG17" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>&gt;.</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="3">
@@ -1263,37 +1841,68 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="8">
+      <c r="H18" s="15">
         <v>3</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="15">
         <v>1</v>
       </c>
       <c r="J18" s="8">
         <v>1</v>
       </c>
-      <c r="L18" s="3">
+      <c r="K18" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;&gt;&gt;+.</v>
+      </c>
+      <c r="M18" s="3">
         <v>64</v>
       </c>
-      <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
-      <c r="Q18" s="5">
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5">
         <v>64</v>
       </c>
-      <c r="R18" s="8">
-        <v>1</v>
-      </c>
-      <c r="S18" s="8">
-        <v>1</v>
-      </c>
-      <c r="T18" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="S18" s="15">
+        <v>1</v>
+      </c>
+      <c r="T18" s="15">
+        <v>1</v>
+      </c>
+      <c r="U18" s="8">
+        <v>1</v>
+      </c>
+      <c r="V18" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>&gt;+.</v>
+      </c>
+      <c r="X18" s="3">
+        <v>64</v>
+      </c>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5">
+        <v>64</v>
+      </c>
+      <c r="AD18" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="15">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG18" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>&gt;+.</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="3">
@@ -1306,37 +1915,68 @@
       <c r="G19" s="5">
         <v>103</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="15">
         <v>3</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="15">
         <v>2</v>
       </c>
       <c r="J19" s="8">
         <v>1</v>
       </c>
-      <c r="L19" s="3">
+      <c r="K19" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;&gt;&gt;++.</v>
+      </c>
+      <c r="M19" s="3">
         <v>103</v>
       </c>
-      <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
-      <c r="P19" s="5">
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5">
         <v>103</v>
       </c>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="8">
-        <v>1</v>
-      </c>
-      <c r="S19" s="8">
-        <v>2</v>
-      </c>
-      <c r="T19" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="R19" s="5"/>
+      <c r="S19" s="15">
+        <v>1</v>
+      </c>
+      <c r="T19" s="15">
+        <v>2</v>
+      </c>
+      <c r="U19" s="8">
+        <v>1</v>
+      </c>
+      <c r="V19" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>&gt;++.</v>
+      </c>
+      <c r="X19" s="3">
+        <v>103</v>
+      </c>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5">
+        <v>103</v>
+      </c>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AE19" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AF19" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;--.</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="3">
@@ -1349,37 +1989,68 @@
         <v>109</v>
       </c>
       <c r="G20" s="5"/>
-      <c r="H20" s="8">
-        <v>1</v>
-      </c>
-      <c r="I20" s="8">
+      <c r="H20" s="15">
+        <v>1</v>
+      </c>
+      <c r="I20" s="15">
         <v>1</v>
       </c>
       <c r="J20" s="8">
         <v>1</v>
       </c>
-      <c r="L20" s="3">
+      <c r="K20" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;+.</v>
+      </c>
+      <c r="M20" s="3">
         <v>109</v>
       </c>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5">
+      <c r="N20" s="5"/>
+      <c r="O20" s="5">
         <v>109</v>
       </c>
-      <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
-      <c r="R20" s="8">
-        <v>2</v>
-      </c>
-      <c r="S20" s="8">
-        <v>1</v>
-      </c>
-      <c r="T20" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="R20" s="5"/>
+      <c r="S20" s="15">
+        <v>2</v>
+      </c>
+      <c r="T20" s="15">
+        <v>1</v>
+      </c>
+      <c r="U20" s="8">
+        <v>1</v>
+      </c>
+      <c r="V20" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>&gt;&gt;+.</v>
+      </c>
+      <c r="X20" s="3">
+        <v>109</v>
+      </c>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5">
+        <v>109</v>
+      </c>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AE20" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AF20" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG20" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;-.</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="3">
@@ -1392,37 +2063,68 @@
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="8">
-        <v>1</v>
-      </c>
-      <c r="I21" s="8">
+      <c r="H21" s="15">
+        <v>1</v>
+      </c>
+      <c r="I21" s="15">
         <v>0</v>
       </c>
       <c r="J21" s="8">
         <v>1</v>
       </c>
-      <c r="L21" s="3">
+      <c r="K21" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;.</v>
+      </c>
+      <c r="M21" s="3">
         <v>97</v>
       </c>
-      <c r="M21" s="5"/>
       <c r="N21" s="5"/>
-      <c r="O21" s="5">
+      <c r="O21" s="5"/>
+      <c r="P21" s="5">
         <v>97</v>
       </c>
-      <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
-      <c r="R21" s="8">
-        <v>1</v>
-      </c>
-      <c r="S21" s="8">
-        <v>0</v>
-      </c>
-      <c r="T21" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="R21" s="5"/>
+      <c r="S21" s="15">
+        <v>1</v>
+      </c>
+      <c r="T21" s="15">
+        <v>0</v>
+      </c>
+      <c r="U21" s="8">
+        <v>1</v>
+      </c>
+      <c r="V21" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>&gt;.</v>
+      </c>
+      <c r="X21" s="3">
+        <v>97</v>
+      </c>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5">
+        <v>97</v>
+      </c>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AE21" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG21" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;.</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="3">
@@ -1435,37 +2137,68 @@
       <c r="G22" s="5">
         <v>105</v>
       </c>
-      <c r="H22" s="8">
-        <v>2</v>
-      </c>
-      <c r="I22" s="8">
+      <c r="H22" s="15">
+        <v>2</v>
+      </c>
+      <c r="I22" s="15">
         <v>2</v>
       </c>
       <c r="J22" s="8">
         <v>1</v>
       </c>
-      <c r="L22" s="3">
+      <c r="K22" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;&gt;++.</v>
+      </c>
+      <c r="M22" s="3">
         <v>105</v>
       </c>
-      <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
-      <c r="P22" s="5">
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5">
         <v>105</v>
       </c>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="8">
-        <v>1</v>
-      </c>
-      <c r="S22" s="8">
-        <v>2</v>
-      </c>
-      <c r="T22" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="R22" s="5"/>
+      <c r="S22" s="15">
+        <v>1</v>
+      </c>
+      <c r="T22" s="15">
+        <v>2</v>
+      </c>
+      <c r="U22" s="8">
+        <v>1</v>
+      </c>
+      <c r="V22" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>&gt;++.</v>
+      </c>
+      <c r="X22" s="3">
+        <v>105</v>
+      </c>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5">
+        <v>105</v>
+      </c>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="15">
+        <v>2</v>
+      </c>
+      <c r="AE22" s="15">
+        <v>2</v>
+      </c>
+      <c r="AF22" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG22" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>&gt;&gt;++.</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="3">
@@ -1478,37 +2211,68 @@
         <v>108</v>
       </c>
       <c r="G23" s="5"/>
-      <c r="H23" s="8">
-        <v>1</v>
-      </c>
-      <c r="I23" s="8">
+      <c r="H23" s="15">
+        <v>1</v>
+      </c>
+      <c r="I23" s="15">
         <v>1</v>
       </c>
       <c r="J23" s="8">
         <v>1</v>
       </c>
-      <c r="L23" s="3">
+      <c r="K23" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;+.</v>
+      </c>
+      <c r="M23" s="3">
         <v>108</v>
       </c>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5">
+      <c r="N23" s="5"/>
+      <c r="O23" s="5">
         <v>108</v>
       </c>
-      <c r="O23" s="5"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
-      <c r="R23" s="8">
-        <v>2</v>
-      </c>
-      <c r="S23" s="8">
-        <v>1</v>
-      </c>
-      <c r="T23" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="R23" s="5"/>
+      <c r="S23" s="15">
+        <v>2</v>
+      </c>
+      <c r="T23" s="15">
+        <v>1</v>
+      </c>
+      <c r="U23" s="8">
+        <v>1</v>
+      </c>
+      <c r="V23" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>&gt;&gt;+.</v>
+      </c>
+      <c r="X23" s="3">
+        <v>108</v>
+      </c>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5">
+        <v>108</v>
+      </c>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AE23" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AF23" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG23" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;-.</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="3">
@@ -1521,37 +2285,68 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="8">
+      <c r="H24" s="15">
         <v>3</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="15">
         <v>0</v>
       </c>
       <c r="J24" s="8">
         <v>1</v>
       </c>
-      <c r="L24" s="3">
+      <c r="K24" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;&gt;&gt;.</v>
+      </c>
+      <c r="M24" s="3">
         <v>46</v>
       </c>
-      <c r="M24" s="5">
+      <c r="N24" s="5">
         <v>46</v>
       </c>
-      <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
-      <c r="R24" s="8">
-        <v>1</v>
-      </c>
-      <c r="S24" s="8">
-        <v>0</v>
-      </c>
-      <c r="T24" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="R24" s="5"/>
+      <c r="S24" s="15">
+        <v>1</v>
+      </c>
+      <c r="T24" s="15">
+        <v>0</v>
+      </c>
+      <c r="U24" s="8">
+        <v>1</v>
+      </c>
+      <c r="V24" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>&gt;.</v>
+      </c>
+      <c r="X24" s="3">
+        <v>46</v>
+      </c>
+      <c r="Y24" s="5">
+        <v>46</v>
+      </c>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AE24" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG24" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;&lt;.</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="3">
@@ -1564,37 +2359,68 @@
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="8">
-        <v>2</v>
-      </c>
-      <c r="I25" s="8">
+      <c r="H25" s="15">
+        <v>2</v>
+      </c>
+      <c r="I25" s="15">
         <v>2</v>
       </c>
       <c r="J25" s="8">
         <v>1</v>
       </c>
-      <c r="L25" s="3">
+      <c r="K25" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;&gt;++.</v>
+      </c>
+      <c r="M25" s="3">
         <v>99</v>
       </c>
-      <c r="M25" s="5"/>
       <c r="N25" s="5"/>
-      <c r="O25" s="5">
+      <c r="O25" s="5"/>
+      <c r="P25" s="5">
         <v>99</v>
       </c>
-      <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
-      <c r="R25" s="8">
-        <v>2</v>
-      </c>
-      <c r="S25" s="8">
-        <v>2</v>
-      </c>
-      <c r="T25" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="R25" s="5"/>
+      <c r="S25" s="15">
+        <v>2</v>
+      </c>
+      <c r="T25" s="15">
+        <v>2</v>
+      </c>
+      <c r="U25" s="8">
+        <v>1</v>
+      </c>
+      <c r="V25" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>&gt;&gt;++.</v>
+      </c>
+      <c r="X25" s="3">
+        <v>99</v>
+      </c>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5">
+        <v>99</v>
+      </c>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="15">
+        <v>2</v>
+      </c>
+      <c r="AF25" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG25" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>&gt;++.</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B26" s="3">
@@ -1607,37 +2433,68 @@
         <v>111</v>
       </c>
       <c r="G26" s="5"/>
-      <c r="H26" s="8">
-        <v>1</v>
-      </c>
-      <c r="I26" s="8">
+      <c r="H26" s="15">
+        <v>1</v>
+      </c>
+      <c r="I26" s="15">
         <v>3</v>
       </c>
       <c r="J26" s="8">
         <v>1</v>
       </c>
-      <c r="L26" s="3">
+      <c r="K26" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;+++.</v>
+      </c>
+      <c r="M26" s="3">
         <v>111</v>
       </c>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5">
+      <c r="N26" s="5"/>
+      <c r="O26" s="5">
         <v>111</v>
       </c>
-      <c r="O26" s="5"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
-      <c r="R26" s="8">
-        <v>1</v>
-      </c>
-      <c r="S26" s="8">
+      <c r="R26" s="5"/>
+      <c r="S26" s="15">
+        <v>1</v>
+      </c>
+      <c r="T26" s="15">
         <v>3</v>
       </c>
-      <c r="T26" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="U26" s="8">
+        <v>1</v>
+      </c>
+      <c r="V26" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>&gt;+++.</v>
+      </c>
+      <c r="X26" s="3">
+        <v>111</v>
+      </c>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5">
+        <v>111</v>
+      </c>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="15">
+        <v>3</v>
+      </c>
+      <c r="AF26" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG26" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>&gt;+++.</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B27" s="3">
@@ -1650,84 +2507,154 @@
         <v>109</v>
       </c>
       <c r="G27" s="5"/>
-      <c r="H27" s="8">
-        <v>0</v>
-      </c>
-      <c r="I27" s="8">
+      <c r="H27" s="15">
+        <v>0</v>
+      </c>
+      <c r="I27" s="15">
         <v>2</v>
       </c>
       <c r="J27" s="8">
         <v>1</v>
       </c>
-      <c r="L27" s="3">
+      <c r="K27" s="16" t="str">
+        <f>_xlfn.CONCAT(REPT(IF(H27&gt;0,"&gt;","&lt;"),ABS(H27)),REPT(IF(I27&gt;0,"+","-"),ABS(I27)),".")</f>
+        <v>++.</v>
+      </c>
+      <c r="M27" s="3">
         <v>109</v>
       </c>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5">
+      <c r="N27" s="5"/>
+      <c r="O27" s="5">
         <v>109</v>
       </c>
-      <c r="O27" s="5"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
-      <c r="R27" s="8">
-        <v>0</v>
-      </c>
-      <c r="S27" s="8">
-        <v>2</v>
-      </c>
-      <c r="T27" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="H28" s="7">
-        <f>SUM(H2:H27)</f>
+      <c r="R27" s="5"/>
+      <c r="S27" s="15">
+        <v>0</v>
+      </c>
+      <c r="T27" s="15">
+        <v>2</v>
+      </c>
+      <c r="U27" s="8">
+        <v>1</v>
+      </c>
+      <c r="V27" s="16" t="str">
+        <f>_xlfn.CONCAT(REPT(IF(S27&gt;0,"&gt;","&lt;"),ABS(S27)),REPT(IF(T27&gt;0,"+","-"),ABS(T27)),".")</f>
+        <v>++.</v>
+      </c>
+      <c r="X27" s="3">
+        <v>109</v>
+      </c>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5">
+        <v>109</v>
+      </c>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AF27" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG27" s="16" t="str">
+        <f>_xlfn.CONCAT(REPT(IF(AD27&gt;0,"&gt;","&lt;"),ABS(AD27)),REPT(IF(AE27&gt;0,"+","-"),ABS(AE27)),".")</f>
+        <v>--.</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="9">
+        <f>SUMIF(H2:H27,"&gt;0")-SUMIF(H2:H27,"&lt;0")</f>
         <v>38</v>
       </c>
-      <c r="I28" s="7">
-        <f>SUM(I2:I27)</f>
+      <c r="I28" s="9">
+        <f>SUMIF(I2:I27,"&gt;0")-SUMIF(I2:I27,"&lt;0")</f>
         <v>50</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="9">
         <f>SUM(J2:J27)</f>
         <v>26</v>
       </c>
-      <c r="K28" s="1"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="7">
-        <f>SUM(R2:R27)</f>
+      <c r="K28" s="9"/>
+      <c r="L28" s="1"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="9">
+        <f>SUMIF(S2:S27,"&gt;0")-SUMIF(S2:S27,"&lt;0")</f>
         <v>32</v>
       </c>
-      <c r="S28" s="7">
-        <f>SUM(S2:S27)</f>
+      <c r="T28" s="9">
+        <f>SUMIF(T2:T27,"&gt;0")-SUMIF(T2:T27,"&lt;0")</f>
         <v>50</v>
       </c>
-      <c r="T28" s="7">
-        <f>SUM(T2:T27)</f>
+      <c r="U28" s="9">
+        <f>SUM(U2:U27)</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="V28" s="9"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="9">
+        <f>SUMIF(AD2:AD27,"&gt;0")-SUMIF(AD2:AD27,"&lt;0")</f>
+        <v>29</v>
+      </c>
+      <c r="AE28" s="9">
+        <f>SUMIF(AE2:AE27,"&gt;0")-SUMIF(AE2:AE27,"&lt;0")</f>
+        <v>50</v>
+      </c>
+      <c r="AF28" s="9">
+        <f>SUM(AF2:AF27)</f>
+        <v>26</v>
+      </c>
+      <c r="AG28" s="9"/>
+    </row>
+    <row r="29" spans="1:33" ht="21" x14ac:dyDescent="0.3">
       <c r="I29" s="7"/>
-      <c r="J29" s="7">
-        <f>H28+I28+J28</f>
-        <v>114</v>
-      </c>
-      <c r="M29" s="6"/>
+      <c r="J29" s="10">
+        <f>H28+I28+J28+69</f>
+        <v>183</v>
+      </c>
+      <c r="K29" s="7"/>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7">
-        <f>R28+S28+T28</f>
-        <v>108</v>
-      </c>
+      <c r="S29" s="6"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="11">
+        <f>S28+T28+U28+69</f>
+        <v>177</v>
+      </c>
+      <c r="V29" s="7"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="11">
+        <f>AD28+AE28+AF28+69</f>
+        <v>174</v>
+      </c>
+      <c r="AG29" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bf-signature.xlsx
+++ b/bf-signature.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\GitHub\bf-signature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD3E760-DF6F-4CAA-B468-CC699437D7F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6761EB24-3B42-49F8-A105-E565C3C9BF23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AE3D3994-95C1-48E7-B5B4-B402D07D41B7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="642" xr2:uid="{AE3D3994-95C1-48E7-B5B4-B402D07D41B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
   <si>
     <t>d</t>
   </si>
@@ -179,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -216,6 +216,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -537,9 +540,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE9C7E8-E788-408C-8D4B-CE41E722A6C6}">
-  <dimension ref="A1:AG29"/>
+  <dimension ref="A1:AR29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AE3" sqref="AE3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -554,9 +559,12 @@
     <col min="23" max="23" width="2.21875" customWidth="1"/>
     <col min="24" max="32" width="6.21875" customWidth="1"/>
     <col min="33" max="33" width="7.5546875" customWidth="1"/>
+    <col min="34" max="34" width="2.21875" customWidth="1"/>
+    <col min="35" max="43" width="6.21875" customWidth="1"/>
+    <col min="44" max="44" width="7.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A1" s="12"/>
       <c r="B1" s="2"/>
       <c r="C1" s="4">
@@ -642,8 +650,36 @@
       <c r="AG1" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="4">
+        <v>45</v>
+      </c>
+      <c r="AK1" s="4">
+        <v>99</v>
+      </c>
+      <c r="AL1" s="4">
+        <v>108</v>
+      </c>
+      <c r="AM1" s="4">
+        <v>108</v>
+      </c>
+      <c r="AN1" s="4">
+        <v>63</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR1" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -657,16 +693,16 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="15">
+      <c r="H2" s="16">
         <v>3</v>
       </c>
-      <c r="I2" s="15">
+      <c r="I2" s="16">
         <v>1</v>
       </c>
       <c r="J2" s="8">
         <v>1</v>
       </c>
-      <c r="K2" s="16" t="str">
+      <c r="K2" s="17" t="str">
         <f t="shared" ref="K2:K26" si="0">_xlfn.CONCAT(REPT(IF(H2&gt;0,"&gt;","&lt;"),ABS(H2)),REPT(IF(I2&gt;0,"+","-"),ABS(I2)),".")</f>
         <v>&gt;&gt;&gt;+.</v>
       </c>
@@ -680,16 +716,16 @@
       </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
-      <c r="S2" s="15">
+      <c r="S2" s="16">
         <v>3</v>
       </c>
-      <c r="T2" s="15">
+      <c r="T2" s="16">
         <v>1</v>
       </c>
       <c r="U2" s="8">
         <v>1</v>
       </c>
-      <c r="V2" s="16" t="str">
+      <c r="V2" s="17" t="str">
         <f t="shared" ref="V2:V26" si="1">_xlfn.CONCAT(REPT(IF(S2&gt;0,"&gt;","&lt;"),ABS(S2)),REPT(IF(T2&gt;0,"+","-"),ABS(T2)),".")</f>
         <v>&gt;&gt;&gt;+.</v>
       </c>
@@ -703,21 +739,38 @@
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
-      <c r="AD2" s="15">
+      <c r="AD2" s="16">
         <v>2</v>
       </c>
-      <c r="AE2" s="15">
+      <c r="AE2" s="16">
         <v>1</v>
       </c>
       <c r="AF2" s="8">
         <v>1</v>
       </c>
-      <c r="AG2" s="16" t="str">
+      <c r="AG2" s="17" t="str">
         <f t="shared" ref="AG2:AG26" si="2">_xlfn.CONCAT(REPT(IF(AD2&gt;0,"&gt;","&lt;"),ABS(AD2)),REPT(IF(AE2&gt;0,"+","-"),ABS(AE2)),".")</f>
         <v>&gt;&gt;+.</v>
       </c>
+      <c r="AI2" s="3">
+        <v>100</v>
+      </c>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="16"/>
+      <c r="AP2" s="16"/>
+      <c r="AQ2" s="15">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="17" t="str">
+        <f t="shared" ref="AR2:AR26" si="3">_xlfn.CONCAT(REPT(IF(AO2&gt;0,"&gt;","&lt;"),ABS(AO2)),REPT(IF(AP2&gt;0,"+","-"),ABS(AP2)),".")</f>
+        <v>.</v>
+      </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
@@ -731,18 +784,18 @@
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="15">
+      <c r="H3" s="16">
         <v>0</v>
       </c>
-      <c r="I3" s="15">
-        <v>3</v>
+      <c r="I3" s="16">
+        <v>-3</v>
       </c>
       <c r="J3" s="8">
         <v>1</v>
       </c>
-      <c r="K3" s="16" t="str">
+      <c r="K3" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>+++.</v>
+        <v>---.</v>
       </c>
       <c r="M3" s="3">
         <v>97</v>
@@ -754,18 +807,18 @@
       </c>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
-      <c r="S3" s="15">
+      <c r="S3" s="16">
         <v>0</v>
       </c>
-      <c r="T3" s="15">
-        <v>3</v>
+      <c r="T3" s="16">
+        <v>-3</v>
       </c>
       <c r="U3" s="8">
         <v>1</v>
       </c>
-      <c r="V3" s="16" t="str">
+      <c r="V3" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>+++.</v>
+        <v>---.</v>
       </c>
       <c r="X3" s="3">
         <v>97</v>
@@ -777,21 +830,38 @@
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
-      <c r="AD3" s="15">
+      <c r="AD3" s="16">
         <v>0</v>
       </c>
-      <c r="AE3" s="15">
-        <v>3</v>
+      <c r="AE3" s="16">
+        <v>-3</v>
       </c>
       <c r="AF3" s="8">
         <v>1</v>
       </c>
-      <c r="AG3" s="16" t="str">
+      <c r="AG3" s="17" t="str">
         <f t="shared" si="2"/>
-        <v>+++.</v>
+        <v>---.</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>97</v>
+      </c>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="16"/>
+      <c r="AP3" s="16"/>
+      <c r="AQ3" s="15">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>.</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
@@ -805,16 +875,16 @@
         <v>110</v>
       </c>
       <c r="G4" s="5"/>
-      <c r="H4" s="15">
-        <v>1</v>
-      </c>
-      <c r="I4" s="15">
+      <c r="H4" s="16">
+        <v>1</v>
+      </c>
+      <c r="I4" s="16">
         <v>2</v>
       </c>
       <c r="J4" s="8">
         <v>1</v>
       </c>
-      <c r="K4" s="16" t="str">
+      <c r="K4" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&gt;++.</v>
       </c>
@@ -828,18 +898,18 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
-      <c r="S4" s="15">
-        <v>1</v>
-      </c>
-      <c r="T4" s="15">
+      <c r="S4" s="16">
+        <v>-1</v>
+      </c>
+      <c r="T4" s="16">
         <v>2</v>
       </c>
       <c r="U4" s="8">
         <v>1</v>
       </c>
-      <c r="V4" s="16" t="str">
+      <c r="V4" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>&gt;++.</v>
+        <v>&lt;++.</v>
       </c>
       <c r="X4" s="3">
         <v>110</v>
@@ -851,21 +921,38 @@
       </c>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
-      <c r="AD4" s="15">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="15">
+      <c r="AD4" s="16">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="16">
         <v>2</v>
       </c>
       <c r="AF4" s="8">
         <v>1</v>
       </c>
-      <c r="AG4" s="16" t="str">
+      <c r="AG4" s="17" t="str">
         <f t="shared" si="2"/>
         <v>&gt;++.</v>
       </c>
+      <c r="AI4" s="3">
+        <v>110</v>
+      </c>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="16"/>
+      <c r="AP4" s="16"/>
+      <c r="AQ4" s="15">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>.</v>
+      </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
@@ -879,18 +966,18 @@
       <c r="G5" s="5">
         <v>105</v>
       </c>
-      <c r="H5" s="15">
-        <v>1</v>
-      </c>
-      <c r="I5" s="15">
-        <v>3</v>
+      <c r="H5" s="16">
+        <v>1</v>
+      </c>
+      <c r="I5" s="16">
+        <v>-3</v>
       </c>
       <c r="J5" s="8">
         <v>1</v>
       </c>
-      <c r="K5" s="16" t="str">
+      <c r="K5" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;+++.</v>
+        <v>&gt;---.</v>
       </c>
       <c r="M5" s="3">
         <v>105</v>
@@ -902,18 +989,18 @@
         <v>105</v>
       </c>
       <c r="R5" s="5"/>
-      <c r="S5" s="15">
+      <c r="S5" s="16">
         <v>2</v>
       </c>
-      <c r="T5" s="15">
-        <v>3</v>
+      <c r="T5" s="16">
+        <v>-3</v>
       </c>
       <c r="U5" s="8">
         <v>1</v>
       </c>
-      <c r="V5" s="16" t="str">
+      <c r="V5" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>&gt;&gt;+++.</v>
+        <v>&gt;&gt;---.</v>
       </c>
       <c r="X5" s="3">
         <v>105</v>
@@ -925,21 +1012,38 @@
         <v>105</v>
       </c>
       <c r="AC5" s="5"/>
-      <c r="AD5" s="15">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="15">
-        <v>3</v>
+      <c r="AD5" s="16">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="16">
+        <v>-3</v>
       </c>
       <c r="AF5" s="8">
         <v>1</v>
       </c>
-      <c r="AG5" s="16" t="str">
+      <c r="AG5" s="17" t="str">
         <f t="shared" si="2"/>
-        <v>&gt;+++.</v>
+        <v>&gt;---.</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>105</v>
+      </c>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="16"/>
+      <c r="AP5" s="16"/>
+      <c r="AQ5" s="15">
+        <v>1</v>
+      </c>
+      <c r="AR5" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>.</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>4</v>
       </c>
@@ -953,16 +1057,16 @@
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="15">
+      <c r="H6" s="16">
         <v>2</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="16">
         <v>4</v>
       </c>
       <c r="J6" s="8">
         <v>1</v>
       </c>
-      <c r="K6" s="16" t="str">
+      <c r="K6" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&gt;&gt;++++.</v>
       </c>
@@ -976,18 +1080,18 @@
       </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
-      <c r="S6" s="15">
-        <v>1</v>
-      </c>
-      <c r="T6" s="15">
+      <c r="S6" s="16">
+        <v>-1</v>
+      </c>
+      <c r="T6" s="16">
         <v>4</v>
       </c>
       <c r="U6" s="8">
         <v>1</v>
       </c>
-      <c r="V6" s="16" t="str">
+      <c r="V6" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>&gt;++++.</v>
+        <v>&lt;++++.</v>
       </c>
       <c r="X6" s="3">
         <v>101</v>
@@ -999,21 +1103,38 @@
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
-      <c r="AD6" s="15">
+      <c r="AD6" s="16">
         <v>-2</v>
       </c>
-      <c r="AE6" s="15">
+      <c r="AE6" s="16">
         <v>4</v>
       </c>
       <c r="AF6" s="8">
         <v>1</v>
       </c>
-      <c r="AG6" s="16" t="str">
+      <c r="AG6" s="17" t="str">
         <f t="shared" si="2"/>
         <v>&lt;&lt;++++.</v>
       </c>
+      <c r="AI6" s="3">
+        <v>101</v>
+      </c>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="16"/>
+      <c r="AP6" s="16"/>
+      <c r="AQ6" s="15">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>.</v>
+      </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>5</v>
       </c>
@@ -1027,16 +1148,16 @@
       <c r="G7" s="5">
         <v>108</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="16">
         <v>2</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="16">
         <v>3</v>
       </c>
       <c r="J7" s="8">
         <v>1</v>
       </c>
-      <c r="K7" s="16" t="str">
+      <c r="K7" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&gt;&gt;+++.</v>
       </c>
@@ -1050,16 +1171,16 @@
         <v>108</v>
       </c>
       <c r="R7" s="5"/>
-      <c r="S7" s="15">
-        <v>1</v>
-      </c>
-      <c r="T7" s="15">
+      <c r="S7" s="16">
+        <v>1</v>
+      </c>
+      <c r="T7" s="16">
         <v>3</v>
       </c>
       <c r="U7" s="8">
         <v>1</v>
       </c>
-      <c r="V7" s="16" t="str">
+      <c r="V7" s="17" t="str">
         <f t="shared" si="1"/>
         <v>&gt;+++.</v>
       </c>
@@ -1073,21 +1194,38 @@
         <v>108</v>
       </c>
       <c r="AC7" s="5"/>
-      <c r="AD7" s="15">
+      <c r="AD7" s="16">
         <v>2</v>
       </c>
-      <c r="AE7" s="15">
+      <c r="AE7" s="16">
         <v>3</v>
       </c>
       <c r="AF7" s="8">
         <v>1</v>
       </c>
-      <c r="AG7" s="16" t="str">
+      <c r="AG7" s="17" t="str">
         <f t="shared" si="2"/>
         <v>&gt;&gt;+++.</v>
       </c>
+      <c r="AI7" s="3">
+        <v>108</v>
+      </c>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="16"/>
+      <c r="AP7" s="16"/>
+      <c r="AQ7" s="15">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>.</v>
+      </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>4</v>
       </c>
@@ -1101,16 +1239,16 @@
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="15">
+      <c r="H8" s="16">
         <v>2</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="16">
         <v>0</v>
       </c>
       <c r="J8" s="8">
         <v>1</v>
       </c>
-      <c r="K8" s="16" t="str">
+      <c r="K8" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&gt;&gt;.</v>
       </c>
@@ -1124,18 +1262,18 @@
       </c>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
-      <c r="S8" s="15">
-        <v>1</v>
-      </c>
-      <c r="T8" s="15">
+      <c r="S8" s="16">
+        <v>-1</v>
+      </c>
+      <c r="T8" s="16">
         <v>0</v>
       </c>
       <c r="U8" s="8">
         <v>1</v>
       </c>
-      <c r="V8" s="16" t="str">
+      <c r="V8" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>&gt;.</v>
+        <v>&lt;.</v>
       </c>
       <c r="X8" s="3">
         <v>101</v>
@@ -1147,21 +1285,38 @@
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
-      <c r="AD8" s="15">
+      <c r="AD8" s="16">
         <v>-2</v>
       </c>
-      <c r="AE8" s="15">
+      <c r="AE8" s="16">
         <v>0</v>
       </c>
       <c r="AF8" s="8">
         <v>1</v>
       </c>
-      <c r="AG8" s="16" t="str">
+      <c r="AG8" s="17" t="str">
         <f t="shared" si="2"/>
         <v>&lt;&lt;.</v>
       </c>
+      <c r="AI8" s="3">
+        <v>101</v>
+      </c>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="16"/>
+      <c r="AP8" s="16"/>
+      <c r="AQ8" s="15">
+        <v>1</v>
+      </c>
+      <c r="AR8" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>.</v>
+      </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>6</v>
       </c>
@@ -1175,16 +1330,16 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="15">
+      <c r="H9" s="16">
         <v>2</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="16">
         <v>1</v>
       </c>
       <c r="J9" s="8">
         <v>1</v>
       </c>
-      <c r="K9" s="16" t="str">
+      <c r="K9" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&gt;&gt;+.</v>
       </c>
@@ -1198,18 +1353,18 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
-      <c r="S9" s="15">
-        <v>2</v>
-      </c>
-      <c r="T9" s="15">
+      <c r="S9" s="16">
+        <v>-2</v>
+      </c>
+      <c r="T9" s="16">
         <v>1</v>
       </c>
       <c r="U9" s="8">
         <v>1</v>
       </c>
-      <c r="V9" s="16" t="str">
+      <c r="V9" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>&gt;&gt;+.</v>
+        <v>&lt;&lt;+.</v>
       </c>
       <c r="X9" s="3">
         <v>46</v>
@@ -1221,21 +1376,38 @@
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
-      <c r="AD9" s="15">
+      <c r="AD9" s="16">
         <v>-1</v>
       </c>
-      <c r="AE9" s="15">
+      <c r="AE9" s="16">
         <v>1</v>
       </c>
       <c r="AF9" s="8">
         <v>1</v>
       </c>
-      <c r="AG9" s="16" t="str">
+      <c r="AG9" s="17" t="str">
         <f t="shared" si="2"/>
         <v>&lt;+.</v>
       </c>
+      <c r="AI9" s="3">
+        <v>46</v>
+      </c>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="16"/>
+      <c r="AP9" s="16"/>
+      <c r="AQ9" s="15">
+        <v>1</v>
+      </c>
+      <c r="AR9" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>.</v>
+      </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -1249,16 +1421,16 @@
         <v>111</v>
       </c>
       <c r="G10" s="5"/>
-      <c r="H10" s="15">
+      <c r="H10" s="16">
         <v>3</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="16">
         <v>1</v>
       </c>
       <c r="J10" s="8">
         <v>1</v>
       </c>
-      <c r="K10" s="16" t="str">
+      <c r="K10" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&gt;&gt;&gt;+.</v>
       </c>
@@ -1272,16 +1444,16 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
-      <c r="S10" s="15">
-        <v>1</v>
-      </c>
-      <c r="T10" s="15">
+      <c r="S10" s="16">
+        <v>1</v>
+      </c>
+      <c r="T10" s="16">
         <v>1</v>
       </c>
       <c r="U10" s="8">
         <v>1</v>
       </c>
-      <c r="V10" s="16" t="str">
+      <c r="V10" s="17" t="str">
         <f t="shared" si="1"/>
         <v>&gt;+.</v>
       </c>
@@ -1295,21 +1467,38 @@
       </c>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
-      <c r="AD10" s="15">
-        <v>-2</v>
-      </c>
-      <c r="AE10" s="15">
+      <c r="AD10" s="16">
+        <v>2</v>
+      </c>
+      <c r="AE10" s="16">
         <v>1</v>
       </c>
       <c r="AF10" s="8">
         <v>1</v>
       </c>
-      <c r="AG10" s="16" t="str">
+      <c r="AG10" s="17" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;&lt;+.</v>
+        <v>&gt;&gt;+.</v>
+      </c>
+      <c r="AI10" s="3">
+        <v>111</v>
+      </c>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="5"/>
+      <c r="AO10" s="16"/>
+      <c r="AP10" s="16"/>
+      <c r="AQ10" s="15">
+        <v>1</v>
+      </c>
+      <c r="AR10" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>.</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>5</v>
       </c>
@@ -1323,16 +1512,16 @@
       <c r="G11" s="5">
         <v>108</v>
       </c>
-      <c r="H11" s="15">
-        <v>1</v>
-      </c>
-      <c r="I11" s="15">
+      <c r="H11" s="16">
+        <v>1</v>
+      </c>
+      <c r="I11" s="16">
         <v>0</v>
       </c>
       <c r="J11" s="8">
         <v>1</v>
       </c>
-      <c r="K11" s="16" t="str">
+      <c r="K11" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&gt;.</v>
       </c>
@@ -1346,16 +1535,16 @@
         <v>108</v>
       </c>
       <c r="R11" s="5"/>
-      <c r="S11" s="15">
+      <c r="S11" s="16">
         <v>2</v>
       </c>
-      <c r="T11" s="15">
+      <c r="T11" s="16">
         <v>0</v>
       </c>
       <c r="U11" s="8">
         <v>1</v>
       </c>
-      <c r="V11" s="16" t="str">
+      <c r="V11" s="17" t="str">
         <f t="shared" si="1"/>
         <v>&gt;&gt;.</v>
       </c>
@@ -1369,21 +1558,38 @@
         <v>108</v>
       </c>
       <c r="AC11" s="5"/>
-      <c r="AD11" s="15">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="15">
+      <c r="AD11" s="16">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="16">
         <v>0</v>
       </c>
       <c r="AF11" s="8">
         <v>1</v>
       </c>
-      <c r="AG11" s="16" t="str">
+      <c r="AG11" s="17" t="str">
         <f t="shared" si="2"/>
         <v>&gt;.</v>
       </c>
+      <c r="AI11" s="3">
+        <v>108</v>
+      </c>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="16"/>
+      <c r="AP11" s="16"/>
+      <c r="AQ11" s="15">
+        <v>1</v>
+      </c>
+      <c r="AR11" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>.</v>
+      </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>8</v>
       </c>
@@ -1397,16 +1603,16 @@
       <c r="G12" s="5">
         <v>109</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="16">
         <v>0</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="16">
         <v>1</v>
       </c>
       <c r="J12" s="8">
         <v>1</v>
       </c>
-      <c r="K12" s="16" t="str">
+      <c r="K12" s="17" t="str">
         <f t="shared" si="0"/>
         <v>+.</v>
       </c>
@@ -1420,16 +1626,16 @@
         <v>109</v>
       </c>
       <c r="R12" s="5"/>
-      <c r="S12" s="15">
+      <c r="S12" s="16">
         <v>0</v>
       </c>
-      <c r="T12" s="15">
+      <c r="T12" s="16">
         <v>1</v>
       </c>
       <c r="U12" s="8">
         <v>1</v>
       </c>
-      <c r="V12" s="16" t="str">
+      <c r="V12" s="17" t="str">
         <f t="shared" si="1"/>
         <v>+.</v>
       </c>
@@ -1443,21 +1649,38 @@
         <v>109</v>
       </c>
       <c r="AC12" s="5"/>
-      <c r="AD12" s="15">
+      <c r="AD12" s="16">
         <v>0</v>
       </c>
-      <c r="AE12" s="15">
+      <c r="AE12" s="16">
         <v>1</v>
       </c>
       <c r="AF12" s="8">
         <v>1</v>
       </c>
-      <c r="AG12" s="16" t="str">
+      <c r="AG12" s="17" t="str">
         <f t="shared" si="2"/>
         <v>+.</v>
       </c>
+      <c r="AI12" s="3">
+        <v>109</v>
+      </c>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="16"/>
+      <c r="AP12" s="16"/>
+      <c r="AQ12" s="15">
+        <v>1</v>
+      </c>
+      <c r="AR12" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>.</v>
+      </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>3</v>
       </c>
@@ -1471,18 +1694,18 @@
       <c r="G13" s="5">
         <v>105</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="16">
         <v>0</v>
       </c>
-      <c r="I13" s="15">
-        <v>4</v>
+      <c r="I13" s="16">
+        <v>-4</v>
       </c>
       <c r="J13" s="8">
         <v>1</v>
       </c>
-      <c r="K13" s="16" t="str">
+      <c r="K13" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>++++.</v>
+        <v>----.</v>
       </c>
       <c r="M13" s="3">
         <v>105</v>
@@ -1494,18 +1717,18 @@
         <v>105</v>
       </c>
       <c r="R13" s="5"/>
-      <c r="S13" s="15">
+      <c r="S13" s="16">
         <v>0</v>
       </c>
-      <c r="T13" s="15">
-        <v>4</v>
+      <c r="T13" s="16">
+        <v>-4</v>
       </c>
       <c r="U13" s="8">
         <v>1</v>
       </c>
-      <c r="V13" s="16" t="str">
+      <c r="V13" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>++++.</v>
+        <v>----.</v>
       </c>
       <c r="X13" s="3">
         <v>105</v>
@@ -1517,21 +1740,38 @@
         <v>105</v>
       </c>
       <c r="AC13" s="5"/>
-      <c r="AD13" s="15">
+      <c r="AD13" s="16">
         <v>0</v>
       </c>
-      <c r="AE13" s="15">
+      <c r="AE13" s="16">
         <v>-4</v>
       </c>
       <c r="AF13" s="8">
         <v>1</v>
       </c>
-      <c r="AG13" s="16" t="str">
+      <c r="AG13" s="17" t="str">
         <f t="shared" si="2"/>
         <v>----.</v>
       </c>
+      <c r="AI13" s="3">
+        <v>105</v>
+      </c>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="5"/>
+      <c r="AN13" s="5"/>
+      <c r="AO13" s="16"/>
+      <c r="AP13" s="16"/>
+      <c r="AQ13" s="15">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>.</v>
+      </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>9</v>
       </c>
@@ -1545,16 +1785,16 @@
         <v>115</v>
       </c>
       <c r="G14" s="5"/>
-      <c r="H14" s="15">
-        <v>1</v>
-      </c>
-      <c r="I14" s="15">
+      <c r="H14" s="16">
+        <v>1</v>
+      </c>
+      <c r="I14" s="16">
         <v>4</v>
       </c>
       <c r="J14" s="8">
         <v>1</v>
       </c>
-      <c r="K14" s="16" t="str">
+      <c r="K14" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&gt;++++.</v>
       </c>
@@ -1568,18 +1808,18 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
-      <c r="S14" s="15">
-        <v>2</v>
-      </c>
-      <c r="T14" s="15">
+      <c r="S14" s="16">
+        <v>-2</v>
+      </c>
+      <c r="T14" s="16">
         <v>4</v>
       </c>
       <c r="U14" s="8">
         <v>1</v>
       </c>
-      <c r="V14" s="16" t="str">
+      <c r="V14" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>&gt;&gt;++++.</v>
+        <v>&lt;&lt;++++.</v>
       </c>
       <c r="X14" s="3">
         <v>115</v>
@@ -1591,21 +1831,38 @@
       </c>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
-      <c r="AD14" s="15">
+      <c r="AD14" s="16">
         <v>-1</v>
       </c>
-      <c r="AE14" s="15">
+      <c r="AE14" s="16">
         <v>4</v>
       </c>
       <c r="AF14" s="8">
         <v>1</v>
       </c>
-      <c r="AG14" s="16" t="str">
+      <c r="AG14" s="17" t="str">
         <f t="shared" si="2"/>
         <v>&lt;++++.</v>
       </c>
+      <c r="AI14" s="3">
+        <v>115</v>
+      </c>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="5"/>
+      <c r="AN14" s="5"/>
+      <c r="AO14" s="16"/>
+      <c r="AP14" s="16"/>
+      <c r="AQ14" s="15">
+        <v>1</v>
+      </c>
+      <c r="AR14" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>.</v>
+      </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>1</v>
       </c>
@@ -1619,18 +1876,18 @@
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="15">
-        <v>1</v>
-      </c>
-      <c r="I15" s="15">
-        <v>4</v>
+      <c r="H15" s="16">
+        <v>1</v>
+      </c>
+      <c r="I15" s="16">
+        <v>-4</v>
       </c>
       <c r="J15" s="8">
         <v>1</v>
       </c>
-      <c r="K15" s="16" t="str">
+      <c r="K15" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;++++.</v>
+        <v>&gt;----.</v>
       </c>
       <c r="M15" s="3">
         <v>97</v>
@@ -1642,18 +1899,18 @@
       </c>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
-      <c r="S15" s="15">
-        <v>1</v>
-      </c>
-      <c r="T15" s="15">
-        <v>4</v>
+      <c r="S15" s="16">
+        <v>1</v>
+      </c>
+      <c r="T15" s="16">
+        <v>-4</v>
       </c>
       <c r="U15" s="8">
         <v>1</v>
       </c>
-      <c r="V15" s="16" t="str">
+      <c r="V15" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>&gt;++++.</v>
+        <v>&gt;----.</v>
       </c>
       <c r="X15" s="3">
         <v>97</v>
@@ -1665,21 +1922,38 @@
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
-      <c r="AD15" s="15">
+      <c r="AD15" s="16">
         <v>-1</v>
       </c>
-      <c r="AE15" s="15">
+      <c r="AE15" s="16">
         <v>-4</v>
       </c>
       <c r="AF15" s="8">
         <v>1</v>
       </c>
-      <c r="AG15" s="16" t="str">
+      <c r="AG15" s="17" t="str">
         <f t="shared" si="2"/>
         <v>&lt;----.</v>
       </c>
+      <c r="AI15" s="3">
+        <v>97</v>
+      </c>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="5"/>
+      <c r="AN15" s="5"/>
+      <c r="AO15" s="16"/>
+      <c r="AP15" s="16"/>
+      <c r="AQ15" s="15">
+        <v>1</v>
+      </c>
+      <c r="AR15" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>.</v>
+      </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>2</v>
       </c>
@@ -1693,18 +1967,18 @@
         <v>110</v>
       </c>
       <c r="G16" s="5"/>
-      <c r="H16" s="15">
-        <v>1</v>
-      </c>
-      <c r="I16" s="15">
-        <v>5</v>
+      <c r="H16" s="16">
+        <v>1</v>
+      </c>
+      <c r="I16" s="16">
+        <v>-5</v>
       </c>
       <c r="J16" s="8">
         <v>1</v>
       </c>
-      <c r="K16" s="16" t="str">
+      <c r="K16" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;+++++.</v>
+        <v>&gt;-----.</v>
       </c>
       <c r="M16" s="3">
         <v>110</v>
@@ -1716,18 +1990,18 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
-      <c r="S16" s="15">
-        <v>1</v>
-      </c>
-      <c r="T16" s="15">
-        <v>5</v>
+      <c r="S16" s="16">
+        <v>-1</v>
+      </c>
+      <c r="T16" s="16">
+        <v>-5</v>
       </c>
       <c r="U16" s="8">
         <v>1</v>
       </c>
-      <c r="V16" s="16" t="str">
+      <c r="V16" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>&gt;+++++.</v>
+        <v>&lt;-----.</v>
       </c>
       <c r="X16" s="3">
         <v>110</v>
@@ -1739,21 +2013,38 @@
       </c>
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
-      <c r="AD16" s="15">
-        <v>1</v>
-      </c>
-      <c r="AE16" s="15">
+      <c r="AD16" s="16">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="16">
         <v>-5</v>
       </c>
       <c r="AF16" s="8">
         <v>1</v>
       </c>
-      <c r="AG16" s="16" t="str">
+      <c r="AG16" s="17" t="str">
         <f t="shared" si="2"/>
         <v>&gt;-----.</v>
       </c>
+      <c r="AI16" s="3">
+        <v>110</v>
+      </c>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="5"/>
+      <c r="AN16" s="5"/>
+      <c r="AO16" s="16"/>
+      <c r="AP16" s="16"/>
+      <c r="AQ16" s="15">
+        <v>1</v>
+      </c>
+      <c r="AR16" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>.</v>
+      </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>3</v>
       </c>
@@ -1767,16 +2058,16 @@
       <c r="G17" s="5">
         <v>105</v>
       </c>
-      <c r="H17" s="15">
-        <v>1</v>
-      </c>
-      <c r="I17" s="15">
+      <c r="H17" s="16">
+        <v>1</v>
+      </c>
+      <c r="I17" s="16">
         <v>0</v>
       </c>
       <c r="J17" s="8">
         <v>1</v>
       </c>
-      <c r="K17" s="16" t="str">
+      <c r="K17" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&gt;.</v>
       </c>
@@ -1790,16 +2081,16 @@
         <v>105</v>
       </c>
       <c r="R17" s="5"/>
-      <c r="S17" s="15">
+      <c r="S17" s="16">
         <v>2</v>
       </c>
-      <c r="T17" s="15">
+      <c r="T17" s="16">
         <v>0</v>
       </c>
       <c r="U17" s="8">
         <v>1</v>
       </c>
-      <c r="V17" s="16" t="str">
+      <c r="V17" s="17" t="str">
         <f t="shared" si="1"/>
         <v>&gt;&gt;.</v>
       </c>
@@ -1813,21 +2104,38 @@
         <v>105</v>
       </c>
       <c r="AC17" s="5"/>
-      <c r="AD17" s="15">
-        <v>1</v>
-      </c>
-      <c r="AE17" s="15">
+      <c r="AD17" s="16">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="16">
         <v>0</v>
       </c>
       <c r="AF17" s="8">
         <v>1</v>
       </c>
-      <c r="AG17" s="16" t="str">
+      <c r="AG17" s="17" t="str">
         <f t="shared" si="2"/>
         <v>&gt;.</v>
       </c>
+      <c r="AI17" s="3">
+        <v>105</v>
+      </c>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="5"/>
+      <c r="AN17" s="5"/>
+      <c r="AO17" s="16"/>
+      <c r="AP17" s="16"/>
+      <c r="AQ17" s="15">
+        <v>1</v>
+      </c>
+      <c r="AR17" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>.</v>
+      </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>10</v>
       </c>
@@ -1841,16 +2149,16 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="15">
+      <c r="H18" s="16">
         <v>3</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="16">
         <v>1</v>
       </c>
       <c r="J18" s="8">
         <v>1</v>
       </c>
-      <c r="K18" s="16" t="str">
+      <c r="K18" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&gt;&gt;&gt;+.</v>
       </c>
@@ -1864,16 +2172,16 @@
       <c r="R18" s="5">
         <v>64</v>
       </c>
-      <c r="S18" s="15">
-        <v>1</v>
-      </c>
-      <c r="T18" s="15">
+      <c r="S18" s="16">
+        <v>1</v>
+      </c>
+      <c r="T18" s="16">
         <v>1</v>
       </c>
       <c r="U18" s="8">
         <v>1</v>
       </c>
-      <c r="V18" s="16" t="str">
+      <c r="V18" s="17" t="str">
         <f t="shared" si="1"/>
         <v>&gt;+.</v>
       </c>
@@ -1887,21 +2195,38 @@
       <c r="AC18" s="5">
         <v>64</v>
       </c>
-      <c r="AD18" s="15">
-        <v>1</v>
-      </c>
-      <c r="AE18" s="15">
+      <c r="AD18" s="16">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="16">
         <v>1</v>
       </c>
       <c r="AF18" s="8">
         <v>1</v>
       </c>
-      <c r="AG18" s="16" t="str">
+      <c r="AG18" s="17" t="str">
         <f t="shared" si="2"/>
         <v>&gt;+.</v>
       </c>
+      <c r="AI18" s="3">
+        <v>64</v>
+      </c>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
+      <c r="AN18" s="5"/>
+      <c r="AO18" s="16"/>
+      <c r="AP18" s="16"/>
+      <c r="AQ18" s="15">
+        <v>1</v>
+      </c>
+      <c r="AR18" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>.</v>
+      </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>11</v>
       </c>
@@ -1915,18 +2240,18 @@
       <c r="G19" s="5">
         <v>103</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="16">
         <v>3</v>
       </c>
-      <c r="I19" s="15">
-        <v>2</v>
+      <c r="I19" s="16">
+        <v>-2</v>
       </c>
       <c r="J19" s="8">
         <v>1</v>
       </c>
-      <c r="K19" s="16" t="str">
+      <c r="K19" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;&gt;&gt;++.</v>
+        <v>&gt;&gt;&gt;--.</v>
       </c>
       <c r="M19" s="3">
         <v>103</v>
@@ -1938,18 +2263,18 @@
         <v>103</v>
       </c>
       <c r="R19" s="5"/>
-      <c r="S19" s="15">
-        <v>1</v>
-      </c>
-      <c r="T19" s="15">
-        <v>2</v>
+      <c r="S19" s="16">
+        <v>-1</v>
+      </c>
+      <c r="T19" s="16">
+        <v>-2</v>
       </c>
       <c r="U19" s="8">
         <v>1</v>
       </c>
-      <c r="V19" s="16" t="str">
+      <c r="V19" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>&gt;++.</v>
+        <v>&lt;--.</v>
       </c>
       <c r="X19" s="3">
         <v>103</v>
@@ -1961,21 +2286,38 @@
         <v>103</v>
       </c>
       <c r="AC19" s="5"/>
-      <c r="AD19" s="15">
+      <c r="AD19" s="16">
         <v>-1</v>
       </c>
-      <c r="AE19" s="15">
+      <c r="AE19" s="16">
         <v>-2</v>
       </c>
       <c r="AF19" s="8">
         <v>1</v>
       </c>
-      <c r="AG19" s="16" t="str">
+      <c r="AG19" s="17" t="str">
         <f t="shared" si="2"/>
         <v>&lt;--.</v>
       </c>
+      <c r="AI19" s="3">
+        <v>103</v>
+      </c>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+      <c r="AN19" s="5"/>
+      <c r="AO19" s="16"/>
+      <c r="AP19" s="16"/>
+      <c r="AQ19" s="15">
+        <v>1</v>
+      </c>
+      <c r="AR19" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>.</v>
+      </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>8</v>
       </c>
@@ -1989,18 +2331,18 @@
         <v>109</v>
       </c>
       <c r="G20" s="5"/>
-      <c r="H20" s="15">
-        <v>1</v>
-      </c>
-      <c r="I20" s="15">
-        <v>1</v>
+      <c r="H20" s="16">
+        <v>1</v>
+      </c>
+      <c r="I20" s="16">
+        <v>-1</v>
       </c>
       <c r="J20" s="8">
         <v>1</v>
       </c>
-      <c r="K20" s="16" t="str">
+      <c r="K20" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;+.</v>
+        <v>&gt;-.</v>
       </c>
       <c r="M20" s="3">
         <v>109</v>
@@ -2012,18 +2354,18 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
-      <c r="S20" s="15">
-        <v>2</v>
-      </c>
-      <c r="T20" s="15">
-        <v>1</v>
+      <c r="S20" s="16">
+        <v>-2</v>
+      </c>
+      <c r="T20" s="16">
+        <v>-1</v>
       </c>
       <c r="U20" s="8">
         <v>1</v>
       </c>
-      <c r="V20" s="16" t="str">
+      <c r="V20" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>&gt;&gt;+.</v>
+        <v>&lt;&lt;-.</v>
       </c>
       <c r="X20" s="3">
         <v>109</v>
@@ -2035,21 +2377,38 @@
       </c>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
-      <c r="AD20" s="15">
+      <c r="AD20" s="16">
         <v>-1</v>
       </c>
-      <c r="AE20" s="15">
+      <c r="AE20" s="16">
         <v>-1</v>
       </c>
       <c r="AF20" s="8">
         <v>1</v>
       </c>
-      <c r="AG20" s="16" t="str">
+      <c r="AG20" s="17" t="str">
         <f t="shared" si="2"/>
         <v>&lt;-.</v>
       </c>
+      <c r="AI20" s="3">
+        <v>109</v>
+      </c>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="5"/>
+      <c r="AO20" s="16"/>
+      <c r="AP20" s="16"/>
+      <c r="AQ20" s="15">
+        <v>1</v>
+      </c>
+      <c r="AR20" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>.</v>
+      </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>1</v>
       </c>
@@ -2063,16 +2422,16 @@
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="15">
-        <v>1</v>
-      </c>
-      <c r="I21" s="15">
+      <c r="H21" s="16">
+        <v>1</v>
+      </c>
+      <c r="I21" s="16">
         <v>0</v>
       </c>
       <c r="J21" s="8">
         <v>1</v>
       </c>
-      <c r="K21" s="16" t="str">
+      <c r="K21" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&gt;.</v>
       </c>
@@ -2086,16 +2445,16 @@
       </c>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
-      <c r="S21" s="15">
-        <v>1</v>
-      </c>
-      <c r="T21" s="15">
+      <c r="S21" s="16">
+        <v>1</v>
+      </c>
+      <c r="T21" s="16">
         <v>0</v>
       </c>
       <c r="U21" s="8">
         <v>1</v>
       </c>
-      <c r="V21" s="16" t="str">
+      <c r="V21" s="17" t="str">
         <f t="shared" si="1"/>
         <v>&gt;.</v>
       </c>
@@ -2109,21 +2468,38 @@
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
-      <c r="AD21" s="15">
+      <c r="AD21" s="16">
         <v>-1</v>
       </c>
-      <c r="AE21" s="15">
+      <c r="AE21" s="16">
         <v>0</v>
       </c>
       <c r="AF21" s="8">
         <v>1</v>
       </c>
-      <c r="AG21" s="16" t="str">
+      <c r="AG21" s="17" t="str">
         <f t="shared" si="2"/>
         <v>&lt;.</v>
       </c>
+      <c r="AI21" s="3">
+        <v>97</v>
+      </c>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="5"/>
+      <c r="AO21" s="16"/>
+      <c r="AP21" s="16"/>
+      <c r="AQ21" s="15">
+        <v>1</v>
+      </c>
+      <c r="AR21" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>.</v>
+      </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>3</v>
       </c>
@@ -2137,16 +2513,16 @@
       <c r="G22" s="5">
         <v>105</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="16">
         <v>2</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="16">
         <v>2</v>
       </c>
       <c r="J22" s="8">
         <v>1</v>
       </c>
-      <c r="K22" s="16" t="str">
+      <c r="K22" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&gt;&gt;++.</v>
       </c>
@@ -2160,16 +2536,16 @@
         <v>105</v>
       </c>
       <c r="R22" s="5"/>
-      <c r="S22" s="15">
-        <v>1</v>
-      </c>
-      <c r="T22" s="15">
+      <c r="S22" s="16">
+        <v>1</v>
+      </c>
+      <c r="T22" s="16">
         <v>2</v>
       </c>
       <c r="U22" s="8">
         <v>1</v>
       </c>
-      <c r="V22" s="16" t="str">
+      <c r="V22" s="17" t="str">
         <f t="shared" si="1"/>
         <v>&gt;++.</v>
       </c>
@@ -2183,21 +2559,38 @@
         <v>105</v>
       </c>
       <c r="AC22" s="5"/>
-      <c r="AD22" s="15">
+      <c r="AD22" s="16">
         <v>2</v>
       </c>
-      <c r="AE22" s="15">
+      <c r="AE22" s="16">
         <v>2</v>
       </c>
       <c r="AF22" s="8">
         <v>1</v>
       </c>
-      <c r="AG22" s="16" t="str">
+      <c r="AG22" s="17" t="str">
         <f t="shared" si="2"/>
         <v>&gt;&gt;++.</v>
       </c>
+      <c r="AI22" s="3">
+        <v>105</v>
+      </c>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="5"/>
+      <c r="AO22" s="16"/>
+      <c r="AP22" s="16"/>
+      <c r="AQ22" s="15">
+        <v>1</v>
+      </c>
+      <c r="AR22" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>.</v>
+      </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>5</v>
       </c>
@@ -2211,18 +2604,18 @@
         <v>108</v>
       </c>
       <c r="G23" s="5"/>
-      <c r="H23" s="15">
-        <v>1</v>
-      </c>
-      <c r="I23" s="15">
-        <v>1</v>
+      <c r="H23" s="16">
+        <v>1</v>
+      </c>
+      <c r="I23" s="16">
+        <v>-1</v>
       </c>
       <c r="J23" s="8">
         <v>1</v>
       </c>
-      <c r="K23" s="16" t="str">
+      <c r="K23" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;+.</v>
+        <v>&gt;-.</v>
       </c>
       <c r="M23" s="3">
         <v>108</v>
@@ -2234,18 +2627,18 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
-      <c r="S23" s="15">
-        <v>2</v>
-      </c>
-      <c r="T23" s="15">
-        <v>1</v>
+      <c r="S23" s="16">
+        <v>-2</v>
+      </c>
+      <c r="T23" s="16">
+        <v>-1</v>
       </c>
       <c r="U23" s="8">
         <v>1</v>
       </c>
-      <c r="V23" s="16" t="str">
+      <c r="V23" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>&gt;&gt;+.</v>
+        <v>&lt;&lt;-.</v>
       </c>
       <c r="X23" s="3">
         <v>108</v>
@@ -2257,21 +2650,38 @@
       </c>
       <c r="AB23" s="5"/>
       <c r="AC23" s="5"/>
-      <c r="AD23" s="15">
+      <c r="AD23" s="16">
         <v>-1</v>
       </c>
-      <c r="AE23" s="15">
+      <c r="AE23" s="16">
         <v>-1</v>
       </c>
       <c r="AF23" s="8">
         <v>1</v>
       </c>
-      <c r="AG23" s="16" t="str">
+      <c r="AG23" s="17" t="str">
         <f t="shared" si="2"/>
         <v>&lt;-.</v>
       </c>
+      <c r="AI23" s="3">
+        <v>108</v>
+      </c>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+      <c r="AN23" s="5"/>
+      <c r="AO23" s="16"/>
+      <c r="AP23" s="16"/>
+      <c r="AQ23" s="15">
+        <v>1</v>
+      </c>
+      <c r="AR23" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>.</v>
+      </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>6</v>
       </c>
@@ -2285,16 +2695,16 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="15">
+      <c r="H24" s="16">
         <v>3</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="16">
         <v>0</v>
       </c>
       <c r="J24" s="8">
         <v>1</v>
       </c>
-      <c r="K24" s="16" t="str">
+      <c r="K24" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&gt;&gt;&gt;.</v>
       </c>
@@ -2308,18 +2718,18 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
-      <c r="S24" s="15">
-        <v>1</v>
-      </c>
-      <c r="T24" s="15">
+      <c r="S24" s="16">
+        <v>-1</v>
+      </c>
+      <c r="T24" s="16">
         <v>0</v>
       </c>
       <c r="U24" s="8">
         <v>1</v>
       </c>
-      <c r="V24" s="16" t="str">
+      <c r="V24" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>&gt;.</v>
+        <v>&lt;.</v>
       </c>
       <c r="X24" s="3">
         <v>46</v>
@@ -2331,21 +2741,38 @@
       <c r="AA24" s="5"/>
       <c r="AB24" s="5"/>
       <c r="AC24" s="5"/>
-      <c r="AD24" s="15">
+      <c r="AD24" s="16">
         <v>-2</v>
       </c>
-      <c r="AE24" s="15">
+      <c r="AE24" s="16">
         <v>0</v>
       </c>
       <c r="AF24" s="8">
         <v>1</v>
       </c>
-      <c r="AG24" s="16" t="str">
+      <c r="AG24" s="17" t="str">
         <f t="shared" si="2"/>
         <v>&lt;&lt;.</v>
       </c>
+      <c r="AI24" s="3">
+        <v>46</v>
+      </c>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="5"/>
+      <c r="AO24" s="16"/>
+      <c r="AP24" s="16"/>
+      <c r="AQ24" s="15">
+        <v>1</v>
+      </c>
+      <c r="AR24" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>.</v>
+      </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>12</v>
       </c>
@@ -2359,16 +2786,16 @@
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="15">
+      <c r="H25" s="16">
         <v>2</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I25" s="16">
         <v>2</v>
       </c>
       <c r="J25" s="8">
         <v>1</v>
       </c>
-      <c r="K25" s="16" t="str">
+      <c r="K25" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&gt;&gt;++.</v>
       </c>
@@ -2382,16 +2809,16 @@
       </c>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
-      <c r="S25" s="15">
+      <c r="S25" s="16">
         <v>2</v>
       </c>
-      <c r="T25" s="15">
+      <c r="T25" s="16">
         <v>2</v>
       </c>
       <c r="U25" s="8">
         <v>1</v>
       </c>
-      <c r="V25" s="16" t="str">
+      <c r="V25" s="17" t="str">
         <f t="shared" si="1"/>
         <v>&gt;&gt;++.</v>
       </c>
@@ -2405,21 +2832,38 @@
       <c r="AA25" s="5"/>
       <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
-      <c r="AD25" s="15">
-        <v>1</v>
-      </c>
-      <c r="AE25" s="15">
+      <c r="AD25" s="16">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="16">
         <v>2</v>
       </c>
       <c r="AF25" s="8">
         <v>1</v>
       </c>
-      <c r="AG25" s="16" t="str">
+      <c r="AG25" s="17" t="str">
         <f t="shared" si="2"/>
         <v>&gt;++.</v>
       </c>
+      <c r="AI25" s="3">
+        <v>99</v>
+      </c>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="5"/>
+      <c r="AN25" s="5"/>
+      <c r="AO25" s="16"/>
+      <c r="AP25" s="16"/>
+      <c r="AQ25" s="15">
+        <v>1</v>
+      </c>
+      <c r="AR25" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>.</v>
+      </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>7</v>
       </c>
@@ -2433,16 +2877,16 @@
         <v>111</v>
       </c>
       <c r="G26" s="5"/>
-      <c r="H26" s="15">
-        <v>1</v>
-      </c>
-      <c r="I26" s="15">
+      <c r="H26" s="16">
+        <v>1</v>
+      </c>
+      <c r="I26" s="16">
         <v>3</v>
       </c>
       <c r="J26" s="8">
         <v>1</v>
       </c>
-      <c r="K26" s="16" t="str">
+      <c r="K26" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&gt;+++.</v>
       </c>
@@ -2456,18 +2900,18 @@
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
-      <c r="S26" s="15">
-        <v>1</v>
-      </c>
-      <c r="T26" s="15">
+      <c r="S26" s="16">
+        <v>-1</v>
+      </c>
+      <c r="T26" s="16">
         <v>3</v>
       </c>
       <c r="U26" s="8">
         <v>1</v>
       </c>
-      <c r="V26" s="16" t="str">
+      <c r="V26" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>&gt;+++.</v>
+        <v>&lt;+++.</v>
       </c>
       <c r="X26" s="3">
         <v>111</v>
@@ -2479,21 +2923,38 @@
       </c>
       <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
-      <c r="AD26" s="15">
-        <v>1</v>
-      </c>
-      <c r="AE26" s="15">
+      <c r="AD26" s="16">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="16">
         <v>3</v>
       </c>
       <c r="AF26" s="8">
         <v>1</v>
       </c>
-      <c r="AG26" s="16" t="str">
+      <c r="AG26" s="17" t="str">
         <f t="shared" si="2"/>
         <v>&gt;+++.</v>
       </c>
+      <c r="AI26" s="3">
+        <v>111</v>
+      </c>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
+      <c r="AM26" s="5"/>
+      <c r="AN26" s="5"/>
+      <c r="AO26" s="16"/>
+      <c r="AP26" s="16"/>
+      <c r="AQ26" s="15">
+        <v>1</v>
+      </c>
+      <c r="AR26" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>.</v>
+      </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
         <v>8</v>
       </c>
@@ -2507,18 +2968,18 @@
         <v>109</v>
       </c>
       <c r="G27" s="5"/>
-      <c r="H27" s="15">
+      <c r="H27" s="16">
         <v>0</v>
       </c>
-      <c r="I27" s="15">
-        <v>2</v>
+      <c r="I27" s="16">
+        <v>-2</v>
       </c>
       <c r="J27" s="8">
         <v>1</v>
       </c>
-      <c r="K27" s="16" t="str">
+      <c r="K27" s="17" t="str">
         <f>_xlfn.CONCAT(REPT(IF(H27&gt;0,"&gt;","&lt;"),ABS(H27)),REPT(IF(I27&gt;0,"+","-"),ABS(I27)),".")</f>
-        <v>++.</v>
+        <v>--.</v>
       </c>
       <c r="M27" s="3">
         <v>109</v>
@@ -2530,18 +2991,18 @@
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
-      <c r="S27" s="15">
+      <c r="S27" s="16">
         <v>0</v>
       </c>
-      <c r="T27" s="15">
-        <v>2</v>
+      <c r="T27" s="16">
+        <v>-2</v>
       </c>
       <c r="U27" s="8">
         <v>1</v>
       </c>
-      <c r="V27" s="16" t="str">
+      <c r="V27" s="17" t="str">
         <f>_xlfn.CONCAT(REPT(IF(S27&gt;0,"&gt;","&lt;"),ABS(S27)),REPT(IF(T27&gt;0,"+","-"),ABS(T27)),".")</f>
-        <v>++.</v>
+        <v>--.</v>
       </c>
       <c r="X27" s="3">
         <v>109</v>
@@ -2553,21 +3014,38 @@
       </c>
       <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
-      <c r="AD27" s="15">
+      <c r="AD27" s="16">
         <v>0</v>
       </c>
-      <c r="AE27" s="15">
+      <c r="AE27" s="16">
         <v>-2</v>
       </c>
       <c r="AF27" s="8">
         <v>1</v>
       </c>
-      <c r="AG27" s="16" t="str">
+      <c r="AG27" s="17" t="str">
         <f>_xlfn.CONCAT(REPT(IF(AD27&gt;0,"&gt;","&lt;"),ABS(AD27)),REPT(IF(AE27&gt;0,"+","-"),ABS(AE27)),".")</f>
         <v>--.</v>
       </c>
+      <c r="AI27" s="3">
+        <v>109</v>
+      </c>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5"/>
+      <c r="AM27" s="5"/>
+      <c r="AN27" s="5"/>
+      <c r="AO27" s="16"/>
+      <c r="AP27" s="16"/>
+      <c r="AQ27" s="15">
+        <v>1</v>
+      </c>
+      <c r="AR27" s="17" t="str">
+        <f>_xlfn.CONCAT(REPT(IF(AO27&gt;0,"&gt;","&lt;"),ABS(AO27)),REPT(IF(AP27&gt;0,"+","-"),ABS(AP27)),".")</f>
+        <v>.</v>
+      </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:44" ht="21" x14ac:dyDescent="0.3">
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -2585,7 +3063,10 @@
         <f>SUM(J2:J27)</f>
         <v>26</v>
       </c>
-      <c r="K28" s="9"/>
+      <c r="K28" s="10">
+        <f>H28+I28+J28+69</f>
+        <v>183</v>
+      </c>
       <c r="L28" s="1"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
@@ -2604,7 +3085,10 @@
         <f>SUM(U2:U27)</f>
         <v>26</v>
       </c>
-      <c r="V28" s="9"/>
+      <c r="V28" s="11">
+        <f>S28+T28+U28+69</f>
+        <v>177</v>
+      </c>
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
@@ -2622,14 +3106,34 @@
         <f>SUM(AF2:AF27)</f>
         <v>26</v>
       </c>
-      <c r="AG28" s="9"/>
+      <c r="AG28" s="11">
+        <f>AD28+AE28+AF28+69</f>
+        <v>174</v>
+      </c>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="5"/>
+      <c r="AN28" s="5"/>
+      <c r="AO28" s="9">
+        <f>SUMIF(AO2:AO27,"&gt;0")-SUMIF(AO2:AO27,"&lt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="AP28" s="9">
+        <f>SUMIF(AP2:AP27,"&gt;0")-SUMIF(AP2:AP27,"&lt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="9">
+        <f>SUM(AQ2:AQ27)</f>
+        <v>26</v>
+      </c>
+      <c r="AR28" s="11">
+        <f>AO28+AP28+AQ28+69</f>
+        <v>95</v>
+      </c>
     </row>
-    <row r="29" spans="1:33" ht="21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.3">
       <c r="I29" s="7"/>
-      <c r="J29" s="10">
-        <f>H28+I28+J28+69</f>
-        <v>183</v>
-      </c>
       <c r="K29" s="7"/>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
@@ -2638,10 +3142,6 @@
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
       <c r="T29" s="7"/>
-      <c r="U29" s="11">
-        <f>S28+T28+U28+69</f>
-        <v>177</v>
-      </c>
       <c r="V29" s="7"/>
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
@@ -2650,10 +3150,6 @@
       <c r="AC29" s="6"/>
       <c r="AD29" s="6"/>
       <c r="AE29" s="7"/>
-      <c r="AF29" s="11">
-        <f>AD28+AE28+AF28+69</f>
-        <v>174</v>
-      </c>
       <c r="AG29" s="7"/>
     </row>
   </sheetData>
